--- a/brasil-clubes-rank-2024/tabelas/Copa do Brasil Rank.xlsx
+++ b/brasil-clubes-rank-2024/tabelas/Copa do Brasil Rank.xlsx
@@ -543,7 +543,7 @@
         <v>5</v>
       </c>
       <c r="N2" t="n">
-        <v>19938.24</v>
+        <v>866.88</v>
       </c>
     </row>
     <row r="3">
@@ -589,7 +589,7 @@
         <v>5</v>
       </c>
       <c r="N3" t="n">
-        <v>19131.7</v>
+        <v>831.8200000000001</v>
       </c>
     </row>
     <row r="4">
@@ -635,7 +635,7 @@
         <v>6</v>
       </c>
       <c r="N4" t="n">
-        <v>18074.32</v>
+        <v>785.84</v>
       </c>
     </row>
     <row r="5">
@@ -681,7 +681,7 @@
         <v>4</v>
       </c>
       <c r="N5" t="n">
-        <v>14215.38</v>
+        <v>618.0599999999999</v>
       </c>
     </row>
     <row r="6">
@@ -727,7 +727,7 @@
         <v>5</v>
       </c>
       <c r="N6" t="n">
-        <v>13585.94</v>
+        <v>590.7</v>
       </c>
     </row>
     <row r="7">
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>10161.55</v>
+        <v>441.81</v>
       </c>
     </row>
     <row r="8">
@@ -819,7 +819,7 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>7889</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9">
@@ -865,7 +865,7 @@
         <v>7</v>
       </c>
       <c r="N9" t="n">
-        <v>7633.09</v>
+        <v>331.87</v>
       </c>
     </row>
     <row r="10">
@@ -911,7 +911,7 @@
         <v>5</v>
       </c>
       <c r="N10" t="n">
-        <v>7192.25</v>
+        <v>312.71</v>
       </c>
     </row>
     <row r="11">
@@ -957,7 +957,7 @@
         <v>3</v>
       </c>
       <c r="N11" t="n">
-        <v>7067.75</v>
+        <v>307.29</v>
       </c>
     </row>
     <row r="12">
@@ -1003,7 +1003,7 @@
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>6783.46</v>
+        <v>294.94</v>
       </c>
     </row>
     <row r="13">
@@ -1049,7 +1049,7 @@
         <v>7</v>
       </c>
       <c r="N13" t="n">
-        <v>6307.37</v>
+        <v>274.23</v>
       </c>
     </row>
     <row r="14">
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>4910.35</v>
+        <v>213.49</v>
       </c>
     </row>
     <row r="15">
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>3807.04</v>
+        <v>165.52</v>
       </c>
     </row>
     <row r="16">
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>3775.76</v>
+        <v>164.16</v>
       </c>
     </row>
     <row r="17">
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>3638.22</v>
+        <v>158.18</v>
       </c>
     </row>
     <row r="18">
@@ -1279,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>3626.49</v>
+        <v>157.67</v>
       </c>
     </row>
     <row r="19">
@@ -1325,7 +1325,7 @@
         <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>3578.5</v>
+        <v>155.58</v>
       </c>
     </row>
     <row r="20">
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>3420.94</v>
+        <v>148.74</v>
       </c>
     </row>
     <row r="21">
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>2809.14</v>
+        <v>122.14</v>
       </c>
     </row>
     <row r="22">
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>2774.18</v>
+        <v>120.62</v>
       </c>
     </row>
     <row r="23">
@@ -1509,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>2508.77</v>
+        <v>109.07</v>
       </c>
     </row>
     <row r="24">
@@ -1555,7 +1555,7 @@
         <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>2419.91</v>
+        <v>105.21</v>
       </c>
     </row>
     <row r="25">
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1746.85</v>
+        <v>75.95</v>
       </c>
     </row>
     <row r="26">
@@ -1647,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1580.02</v>
+        <v>68.7</v>
       </c>
     </row>
     <row r="27">
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1522.91</v>
+        <v>66.20999999999999</v>
       </c>
     </row>
     <row r="28">
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1491.4</v>
+        <v>64.84</v>
       </c>
     </row>
     <row r="29">
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1456.44</v>
+        <v>63.32</v>
       </c>
     </row>
     <row r="30">
@@ -1831,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="N30" t="n">
-        <v>1440.26</v>
+        <v>62.62</v>
       </c>
     </row>
     <row r="31">
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1338.14</v>
+        <v>58.18</v>
       </c>
     </row>
     <row r="32">
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1221.53</v>
+        <v>53.11</v>
       </c>
     </row>
     <row r="33">
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1071.26</v>
+        <v>46.58</v>
       </c>
     </row>
     <row r="34">
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>988.92</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35">
@@ -2061,7 +2061,7 @@
         <v>1</v>
       </c>
       <c r="N35" t="n">
-        <v>932.65</v>
+        <v>40.55</v>
       </c>
     </row>
     <row r="36">
@@ -2107,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>801.86</v>
+        <v>34.86</v>
       </c>
     </row>
     <row r="37">
@@ -2153,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>785.91</v>
+        <v>34.17</v>
       </c>
     </row>
     <row r="38">
@@ -2199,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>760.99</v>
+        <v>33.09</v>
       </c>
     </row>
     <row r="39">
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>748.5700000000001</v>
+        <v>32.55</v>
       </c>
     </row>
     <row r="40">
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>688.62</v>
+        <v>29.94</v>
       </c>
     </row>
     <row r="41">
@@ -2337,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>655.88</v>
+        <v>28.52</v>
       </c>
     </row>
     <row r="42">
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>627.67</v>
+        <v>27.29</v>
       </c>
     </row>
     <row r="43">
@@ -2429,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>595.3200000000001</v>
+        <v>25.88</v>
       </c>
     </row>
     <row r="44">
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>567.64</v>
+        <v>24.68</v>
       </c>
     </row>
     <row r="45">
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>526.7</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="46">
@@ -2567,7 +2567,7 @@
         <v>3</v>
       </c>
       <c r="N46" t="n">
-        <v>516.66</v>
+        <v>22.46</v>
       </c>
     </row>
     <row r="47">
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>484.3</v>
+        <v>21.06</v>
       </c>
     </row>
     <row r="48">
@@ -2659,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>481.31</v>
+        <v>20.93</v>
       </c>
     </row>
     <row r="49">
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>460</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>457.16</v>
+        <v>19.88</v>
       </c>
     </row>
     <row r="51">
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>426.57</v>
+        <v>18.55</v>
       </c>
     </row>
     <row r="52">
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>419.83</v>
+        <v>18.25</v>
       </c>
     </row>
     <row r="53">
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>418.68</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="54">
@@ -2935,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>417.68</v>
+        <v>18.16</v>
       </c>
     </row>
     <row r="55">
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>414.84</v>
+        <v>18.04</v>
       </c>
     </row>
     <row r="56">
@@ -3027,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>411.09</v>
+        <v>17.87</v>
       </c>
     </row>
     <row r="57">
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>387.63</v>
+        <v>16.85</v>
       </c>
     </row>
     <row r="58">
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>314.95</v>
+        <v>13.69</v>
       </c>
     </row>
     <row r="59">
@@ -3165,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>313.87</v>
+        <v>13.65</v>
       </c>
     </row>
     <row r="60">
@@ -3211,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>301.84</v>
+        <v>13.12</v>
       </c>
     </row>
     <row r="61">
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>296.01</v>
+        <v>12.87</v>
       </c>
     </row>
     <row r="62">
@@ -3303,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>294.86</v>
+        <v>12.82</v>
       </c>
     </row>
     <row r="63">
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>290.8</v>
+        <v>12.64</v>
       </c>
     </row>
     <row r="64">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>279.3</v>
+        <v>12.14</v>
       </c>
     </row>
     <row r="65">
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>268.95</v>
+        <v>11.69</v>
       </c>
     </row>
     <row r="66">
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>258.44</v>
+        <v>11.24</v>
       </c>
     </row>
     <row r="67">
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>257.45</v>
+        <v>11.19</v>
       </c>
     </row>
     <row r="68">
@@ -3579,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>253.84</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="69">
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>247.02</v>
+        <v>10.74</v>
       </c>
     </row>
     <row r="70">
@@ -3671,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>239.97</v>
+        <v>10.43</v>
       </c>
     </row>
     <row r="71">
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>207.77</v>
+        <v>9.029999999999999</v>
       </c>
     </row>
     <row r="72">
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>203.78</v>
+        <v>8.859999999999999</v>
       </c>
     </row>
     <row r="73">
@@ -3809,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>192.13</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="74">
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>186.53</v>
+        <v>8.109999999999999</v>
       </c>
     </row>
     <row r="75">
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>178.71</v>
+        <v>7.77</v>
       </c>
     </row>
     <row r="76">
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>174.19</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="77">
@@ -3993,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>172.81</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="78">
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>171.66</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="79">
@@ -4085,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>171.58</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="80">
@@ -4131,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>170.2</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="81">
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>169.43</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="82">
@@ -4223,7 +4223,7 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>167.67</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="83">
@@ -4269,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>152.95</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="84">
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>143.29</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="85">
@@ -4361,7 +4361,7 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>142.6</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="86">
@@ -4407,7 +4407,7 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>140.76</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="87">
@@ -4453,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>138</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88">
@@ -4499,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>138</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89">
@@ -4545,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>135.32</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="90">
@@ -4591,7 +4591,7 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>128.19</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="91">
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>125.81</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="92">
@@ -4683,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>124.97</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="93">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Juazeirense</t>
+          <t>Atlético Roraima</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -4708,28 +4708,28 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
         <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M93" t="n">
         <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>123.82</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="94">
@@ -4738,7 +4738,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Atlético Roraima</t>
+          <t>Juazeirense</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -4754,28 +4754,28 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M94" t="n">
         <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>123.74</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="95">
@@ -4821,7 +4821,7 @@
         <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>123.28</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="96">
@@ -4867,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>122.59</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="97">
@@ -4913,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>113.47</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="98">
@@ -4959,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>112.93</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="99">
@@ -5005,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>112.24</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="100">
@@ -5051,7 +5051,7 @@
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>112.24</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="101">
@@ -5097,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>110.86</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="102">
@@ -5143,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>109.02</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="103">
@@ -5189,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>107.18</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="104">
@@ -5235,7 +5235,7 @@
         <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>104.42</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="105">
@@ -5281,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="N105" t="n">
-        <v>103.81</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="106">
@@ -5327,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="N106" t="n">
-        <v>102.58</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="107">
@@ -5373,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="N107" t="n">
-        <v>102.43</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="108">
@@ -5419,7 +5419,7 @@
         <v>0</v>
       </c>
       <c r="N108" t="n">
-        <v>100.05</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="109">
@@ -5465,7 +5465,7 @@
         <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>97.52</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="110">
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="N110" t="n">
-        <v>96.14</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="111">
@@ -5557,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="N111" t="n">
-        <v>96.14</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="112">
@@ -5603,7 +5603,7 @@
         <v>0</v>
       </c>
       <c r="N112" t="n">
-        <v>92.77</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="113">
@@ -5649,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="N113" t="n">
-        <v>91.54000000000001</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="114">
@@ -5695,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="N114" t="n">
-        <v>90.84999999999999</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="115">
@@ -5741,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="N115" t="n">
-        <v>90.39</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="116">
@@ -5787,7 +5787,7 @@
         <v>0</v>
       </c>
       <c r="N116" t="n">
-        <v>90.16</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="117">
@@ -5833,7 +5833,7 @@
         <v>0</v>
       </c>
       <c r="N117" t="n">
-        <v>88.31999999999999</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="118">
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="N118" t="n">
-        <v>85.79000000000001</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="119">
@@ -5925,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="N119" t="n">
-        <v>85.09999999999999</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="120">
@@ -5971,7 +5971,7 @@
         <v>0</v>
       </c>
       <c r="N120" t="n">
-        <v>83.72</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="121">
@@ -6017,7 +6017,7 @@
         <v>0</v>
       </c>
       <c r="N121" t="n">
-        <v>80.04000000000001</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="122">
@@ -6063,7 +6063,7 @@
         <v>0</v>
       </c>
       <c r="N122" t="n">
-        <v>78.66</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="123">
@@ -6109,7 +6109,7 @@
         <v>0</v>
       </c>
       <c r="N123" t="n">
-        <v>76.67</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="124">
@@ -6155,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="N124" t="n">
-        <v>76.67</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="125">
@@ -6201,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="N125" t="n">
-        <v>76.67</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="126">
@@ -6247,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="N126" t="n">
-        <v>76.67</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="127">
@@ -6293,7 +6293,7 @@
         <v>0</v>
       </c>
       <c r="N127" t="n">
-        <v>76.67</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="128">
@@ -6339,7 +6339,7 @@
         <v>0</v>
       </c>
       <c r="N128" t="n">
-        <v>75.44</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="129">
@@ -6385,7 +6385,7 @@
         <v>0</v>
       </c>
       <c r="N129" t="n">
-        <v>74.06</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="130">
@@ -6431,7 +6431,7 @@
         <v>0</v>
       </c>
       <c r="N130" t="n">
-        <v>72.91</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="131">
@@ -6477,7 +6477,7 @@
         <v>0</v>
       </c>
       <c r="N131" t="n">
-        <v>72.22</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="132">
@@ -6523,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="N132" t="n">
-        <v>71.53</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="133">
@@ -6569,7 +6569,7 @@
         <v>0</v>
       </c>
       <c r="N133" t="n">
-        <v>71.53</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="134">
@@ -6615,7 +6615,7 @@
         <v>0</v>
       </c>
       <c r="N134" t="n">
-        <v>70.38</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="135">
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="N135" t="n">
-        <v>70.38</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="136">
@@ -6707,7 +6707,7 @@
         <v>0</v>
       </c>
       <c r="N136" t="n">
-        <v>70.38</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="137">
@@ -6753,7 +6753,7 @@
         <v>0</v>
       </c>
       <c r="N137" t="n">
-        <v>70.38</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="138">
@@ -6799,7 +6799,7 @@
         <v>0</v>
       </c>
       <c r="N138" t="n">
-        <v>68.31</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="139">
@@ -6845,7 +6845,7 @@
         <v>0</v>
       </c>
       <c r="N139" t="n">
-        <v>67.62</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="140">
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="N140" t="n">
-        <v>67.62</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="141">
@@ -6937,7 +6937,7 @@
         <v>0</v>
       </c>
       <c r="N141" t="n">
-        <v>66.47</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="142">
@@ -6983,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="N142" t="n">
-        <v>65.78</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="143">
@@ -7029,7 +7029,7 @@
         <v>0</v>
       </c>
       <c r="N143" t="n">
-        <v>63.94</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="144">
@@ -7075,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="N144" t="n">
-        <v>61.87</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="145">
@@ -7121,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="N145" t="n">
-        <v>61.18</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="146">
@@ -7167,7 +7167,7 @@
         <v>0</v>
       </c>
       <c r="N146" t="n">
-        <v>60.72</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="147">
@@ -7213,7 +7213,7 @@
         <v>0</v>
       </c>
       <c r="N147" t="n">
-        <v>59.34</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="148">
@@ -7259,7 +7259,7 @@
         <v>0</v>
       </c>
       <c r="N148" t="n">
-        <v>59.34</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="149">
@@ -7305,7 +7305,7 @@
         <v>0</v>
       </c>
       <c r="N149" t="n">
-        <v>59.34</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="150">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="N150" t="n">
-        <v>59.34</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="151">
@@ -7397,7 +7397,7 @@
         <v>0</v>
       </c>
       <c r="N151" t="n">
-        <v>59.34</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="152">
@@ -7443,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="N152" t="n">
-        <v>59.34</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="153">
@@ -7489,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="N153" t="n">
-        <v>59.34</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="154">
@@ -7535,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="N154" t="n">
-        <v>57.96</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="155">
@@ -7581,7 +7581,7 @@
         <v>0</v>
       </c>
       <c r="N155" t="n">
-        <v>57.96</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="156">
@@ -7627,7 +7627,7 @@
         <v>0</v>
       </c>
       <c r="N156" t="n">
-        <v>57.96</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="157">
@@ -7673,7 +7673,7 @@
         <v>0</v>
       </c>
       <c r="N157" t="n">
-        <v>57.96</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="158">
@@ -7719,7 +7719,7 @@
         <v>0</v>
       </c>
       <c r="N158" t="n">
-        <v>57.96</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="159">
@@ -7765,7 +7765,7 @@
         <v>0</v>
       </c>
       <c r="N159" t="n">
-        <v>56.81</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="160">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="N160" t="n">
-        <v>56.81</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="161">
@@ -7857,7 +7857,7 @@
         <v>0</v>
       </c>
       <c r="N161" t="n">
-        <v>54.28</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="162">
@@ -7903,7 +7903,7 @@
         <v>0</v>
       </c>
       <c r="N162" t="n">
-        <v>54.28</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="163">
@@ -7949,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="N163" t="n">
-        <v>54.28</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="164">
@@ -7995,7 +7995,7 @@
         <v>0</v>
       </c>
       <c r="N164" t="n">
-        <v>54.28</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="165">
@@ -8041,7 +8041,7 @@
         <v>0</v>
       </c>
       <c r="N165" t="n">
-        <v>54.28</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="166">
@@ -8087,7 +8087,7 @@
         <v>0</v>
       </c>
       <c r="N166" t="n">
-        <v>52.9</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="167">
@@ -8133,7 +8133,7 @@
         <v>0</v>
       </c>
       <c r="N167" t="n">
-        <v>52.9</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="168">
@@ -8179,7 +8179,7 @@
         <v>0</v>
       </c>
       <c r="N168" t="n">
-        <v>51.52</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="169">
@@ -8225,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="N169" t="n">
-        <v>49.68</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="170">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="N170" t="n">
-        <v>48.99</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="171">
@@ -8317,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="N171" t="n">
-        <v>48.99</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="172">
@@ -8363,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="N172" t="n">
-        <v>48.53</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="173">
@@ -8409,7 +8409,7 @@
         <v>0</v>
       </c>
       <c r="N173" t="n">
-        <v>48.3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="174">
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="N174" t="n">
-        <v>48.3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="175">
@@ -8501,7 +8501,7 @@
         <v>0</v>
       </c>
       <c r="N175" t="n">
-        <v>48.3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="176">
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="N176" t="n">
-        <v>48.3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="177">
@@ -8593,7 +8593,7 @@
         <v>0</v>
       </c>
       <c r="N177" t="n">
-        <v>48.3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="178">
@@ -8639,7 +8639,7 @@
         <v>0</v>
       </c>
       <c r="N178" t="n">
-        <v>47.15</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="179">
@@ -8685,7 +8685,7 @@
         <v>0</v>
       </c>
       <c r="N179" t="n">
-        <v>45.77</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="180">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="N180" t="n">
-        <v>45.08</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="181">
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="N181" t="n">
-        <v>45.08</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="182">
@@ -8823,7 +8823,7 @@
         <v>0</v>
       </c>
       <c r="N182" t="n">
-        <v>45.08</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="183">
@@ -8869,7 +8869,7 @@
         <v>0</v>
       </c>
       <c r="N183" t="n">
-        <v>43.24</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="184">
@@ -8915,7 +8915,7 @@
         <v>0</v>
       </c>
       <c r="N184" t="n">
-        <v>43.24</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="185">
@@ -8961,7 +8961,7 @@
         <v>0</v>
       </c>
       <c r="N185" t="n">
-        <v>43.24</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="186">
@@ -9007,7 +9007,7 @@
         <v>0</v>
       </c>
       <c r="N186" t="n">
-        <v>43.24</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="187">
@@ -9053,7 +9053,7 @@
         <v>0</v>
       </c>
       <c r="N187" t="n">
-        <v>43.24</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="188">
@@ -9099,7 +9099,7 @@
         <v>0</v>
       </c>
       <c r="N188" t="n">
-        <v>43.24</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="189">
@@ -9145,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="N189" t="n">
-        <v>41.86</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="190">
@@ -9191,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="N190" t="n">
-        <v>41.86</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="191">
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="N191" t="n">
-        <v>41.86</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="192">
@@ -9283,7 +9283,7 @@
         <v>0</v>
       </c>
       <c r="N192" t="n">
-        <v>40.02</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="193">
@@ -9329,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="N193" t="n">
-        <v>38.64</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="194">
@@ -9375,7 +9375,7 @@
         <v>0</v>
       </c>
       <c r="N194" t="n">
-        <v>36.8</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="195">
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="N195" t="n">
-        <v>36.8</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="196">
@@ -9467,7 +9467,7 @@
         <v>0</v>
       </c>
       <c r="N196" t="n">
-        <v>36.8</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="197">
@@ -9513,7 +9513,7 @@
         <v>0</v>
       </c>
       <c r="N197" t="n">
-        <v>35.42</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="198">
@@ -9559,7 +9559,7 @@
         <v>0</v>
       </c>
       <c r="N198" t="n">
-        <v>35.42</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="199">
@@ -9605,7 +9605,7 @@
         <v>0</v>
       </c>
       <c r="N199" t="n">
-        <v>35.42</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="200">
@@ -9651,7 +9651,7 @@
         <v>0</v>
       </c>
       <c r="N200" t="n">
-        <v>35.42</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="201">
@@ -9697,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="N201" t="n">
-        <v>35.42</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="202">
@@ -9743,7 +9743,7 @@
         <v>0</v>
       </c>
       <c r="N202" t="n">
-        <v>35.42</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="203">
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="N203" t="n">
-        <v>33.58</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="204">
@@ -9835,7 +9835,7 @@
         <v>0</v>
       </c>
       <c r="N204" t="n">
-        <v>33.58</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="205">
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="N205" t="n">
-        <v>32.89</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="206">
@@ -9927,7 +9927,7 @@
         <v>0</v>
       </c>
       <c r="N206" t="n">
-        <v>32.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="207">
@@ -9973,7 +9973,7 @@
         <v>0</v>
       </c>
       <c r="N207" t="n">
-        <v>32.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="208">
@@ -10019,7 +10019,7 @@
         <v>0</v>
       </c>
       <c r="N208" t="n">
-        <v>32.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="209">
@@ -10065,7 +10065,7 @@
         <v>0</v>
       </c>
       <c r="N209" t="n">
-        <v>32.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="210">
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="N210" t="n">
-        <v>32.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="211">
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="N211" t="n">
-        <v>32.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="212">
@@ -10203,7 +10203,7 @@
         <v>0</v>
       </c>
       <c r="N212" t="n">
-        <v>32.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="213">
@@ -10249,7 +10249,7 @@
         <v>0</v>
       </c>
       <c r="N213" t="n">
-        <v>32.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="214">
@@ -10295,7 +10295,7 @@
         <v>0</v>
       </c>
       <c r="N214" t="n">
-        <v>32.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="215">
@@ -10341,7 +10341,7 @@
         <v>0</v>
       </c>
       <c r="N215" t="n">
-        <v>32.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="216">
@@ -10387,7 +10387,7 @@
         <v>0</v>
       </c>
       <c r="N216" t="n">
-        <v>32.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="217">
@@ -10433,7 +10433,7 @@
         <v>0</v>
       </c>
       <c r="N217" t="n">
-        <v>32.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="218">
@@ -10479,7 +10479,7 @@
         <v>0</v>
       </c>
       <c r="N218" t="n">
-        <v>32.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="219">
@@ -10525,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="N219" t="n">
-        <v>32.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="220">
@@ -10571,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="N220" t="n">
-        <v>32.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="221">
@@ -10617,7 +10617,7 @@
         <v>0</v>
       </c>
       <c r="N221" t="n">
-        <v>32.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="222">
@@ -10663,7 +10663,7 @@
         <v>0</v>
       </c>
       <c r="N222" t="n">
-        <v>32.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="223">
@@ -10709,7 +10709,7 @@
         <v>0</v>
       </c>
       <c r="N223" t="n">
-        <v>31.05</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="224">
@@ -10755,7 +10755,7 @@
         <v>0</v>
       </c>
       <c r="N224" t="n">
-        <v>28.98</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="225">
@@ -10801,7 +10801,7 @@
         <v>0</v>
       </c>
       <c r="N225" t="n">
-        <v>28.98</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="226">
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="N226" t="n">
-        <v>28.98</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="227">
@@ -10893,7 +10893,7 @@
         <v>0</v>
       </c>
       <c r="N227" t="n">
-        <v>28.98</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="228">
@@ -10939,7 +10939,7 @@
         <v>0</v>
       </c>
       <c r="N228" t="n">
-        <v>27.14</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="229">
@@ -10985,7 +10985,7 @@
         <v>0</v>
       </c>
       <c r="N229" t="n">
-        <v>27.14</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="230">
@@ -11031,7 +11031,7 @@
         <v>0</v>
       </c>
       <c r="N230" t="n">
-        <v>27.14</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="231">
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="N231" t="n">
-        <v>27.14</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="232">
@@ -11123,7 +11123,7 @@
         <v>0</v>
       </c>
       <c r="N232" t="n">
-        <v>27.14</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="233">
@@ -11169,7 +11169,7 @@
         <v>0</v>
       </c>
       <c r="N233" t="n">
-        <v>27.14</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="234">
@@ -11215,7 +11215,7 @@
         <v>0</v>
       </c>
       <c r="N234" t="n">
-        <v>27.14</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="235">
@@ -11261,7 +11261,7 @@
         <v>0</v>
       </c>
       <c r="N235" t="n">
-        <v>27.14</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="236">
@@ -11307,7 +11307,7 @@
         <v>0</v>
       </c>
       <c r="N236" t="n">
-        <v>27.14</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="237">
@@ -11353,7 +11353,7 @@
         <v>0</v>
       </c>
       <c r="N237" t="n">
-        <v>27.14</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="238">
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="N238" t="n">
-        <v>27.14</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="239">
@@ -11445,7 +11445,7 @@
         <v>0</v>
       </c>
       <c r="N239" t="n">
-        <v>27.14</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="240">
@@ -11491,7 +11491,7 @@
         <v>0</v>
       </c>
       <c r="N240" t="n">
-        <v>27.14</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="241">
@@ -11537,7 +11537,7 @@
         <v>0</v>
       </c>
       <c r="N241" t="n">
-        <v>27.14</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="242">
@@ -11583,7 +11583,7 @@
         <v>0</v>
       </c>
       <c r="N242" t="n">
-        <v>27.14</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="243">
@@ -11629,7 +11629,7 @@
         <v>0</v>
       </c>
       <c r="N243" t="n">
-        <v>27.14</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="244">
@@ -11675,7 +11675,7 @@
         <v>0</v>
       </c>
       <c r="N244" t="n">
-        <v>27.14</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="245">
@@ -11721,7 +11721,7 @@
         <v>0</v>
       </c>
       <c r="N245" t="n">
-        <v>27.14</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="246">
@@ -11767,7 +11767,7 @@
         <v>0</v>
       </c>
       <c r="N246" t="n">
-        <v>27.14</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="247">
@@ -11813,7 +11813,7 @@
         <v>0</v>
       </c>
       <c r="N247" t="n">
-        <v>27.14</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="248">
@@ -11859,7 +11859,7 @@
         <v>0</v>
       </c>
       <c r="N248" t="n">
-        <v>27.14</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="249">
@@ -11905,7 +11905,7 @@
         <v>0</v>
       </c>
       <c r="N249" t="n">
-        <v>27.14</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="250">
@@ -11951,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="N250" t="n">
-        <v>27.14</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="251">
@@ -11997,7 +11997,7 @@
         <v>0</v>
       </c>
       <c r="N251" t="n">
-        <v>27.14</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="252">
@@ -12043,7 +12043,7 @@
         <v>0</v>
       </c>
       <c r="N252" t="n">
-        <v>27.14</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="253">
@@ -12089,7 +12089,7 @@
         <v>0</v>
       </c>
       <c r="N253" t="n">
-        <v>25.76</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="254">
@@ -12135,7 +12135,7 @@
         <v>0</v>
       </c>
       <c r="N254" t="n">
-        <v>25.76</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="255">
@@ -12181,7 +12181,7 @@
         <v>0</v>
       </c>
       <c r="N255" t="n">
-        <v>25.76</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="256">
@@ -12227,7 +12227,7 @@
         <v>0</v>
       </c>
       <c r="N256" t="n">
-        <v>25.76</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="257">
@@ -12273,7 +12273,7 @@
         <v>0</v>
       </c>
       <c r="N257" t="n">
-        <v>25.76</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="258">
@@ -12319,7 +12319,7 @@
         <v>0</v>
       </c>
       <c r="N258" t="n">
-        <v>25.76</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="259">
@@ -12365,7 +12365,7 @@
         <v>0</v>
       </c>
       <c r="N259" t="n">
-        <v>25.76</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="260">
@@ -12411,7 +12411,7 @@
         <v>0</v>
       </c>
       <c r="N260" t="n">
-        <v>25.76</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="261">
@@ -12457,7 +12457,7 @@
         <v>0</v>
       </c>
       <c r="N261" t="n">
-        <v>25.76</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="262">
@@ -12503,7 +12503,7 @@
         <v>0</v>
       </c>
       <c r="N262" t="n">
-        <v>25.76</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="263">
@@ -12549,7 +12549,7 @@
         <v>0</v>
       </c>
       <c r="N263" t="n">
-        <v>25.76</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="264">
@@ -12595,7 +12595,7 @@
         <v>0</v>
       </c>
       <c r="N264" t="n">
-        <v>25.76</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="265">
@@ -12641,7 +12641,7 @@
         <v>0</v>
       </c>
       <c r="N265" t="n">
-        <v>25.76</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="266">
@@ -12687,7 +12687,7 @@
         <v>0</v>
       </c>
       <c r="N266" t="n">
-        <v>25.76</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="267">
@@ -12733,7 +12733,7 @@
         <v>0</v>
       </c>
       <c r="N267" t="n">
-        <v>25.76</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="268">
@@ -12779,7 +12779,7 @@
         <v>0</v>
       </c>
       <c r="N268" t="n">
-        <v>23.23</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="269">
@@ -12825,7 +12825,7 @@
         <v>0</v>
       </c>
       <c r="N269" t="n">
-        <v>20.01</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="270">
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="N270" t="n">
-        <v>20.01</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="271">
@@ -12917,7 +12917,7 @@
         <v>0</v>
       </c>
       <c r="N271" t="n">
-        <v>20.01</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="272">
@@ -12963,7 +12963,7 @@
         <v>0</v>
       </c>
       <c r="N272" t="n">
-        <v>19.32</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="273">
@@ -13009,7 +13009,7 @@
         <v>0</v>
       </c>
       <c r="N273" t="n">
-        <v>19.32</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="274">
@@ -13055,7 +13055,7 @@
         <v>0</v>
       </c>
       <c r="N274" t="n">
-        <v>19.32</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="275">
@@ -13101,7 +13101,7 @@
         <v>0</v>
       </c>
       <c r="N275" t="n">
-        <v>19.32</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="276">
@@ -13147,7 +13147,7 @@
         <v>0</v>
       </c>
       <c r="N276" t="n">
-        <v>19.32</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="277">
@@ -13193,7 +13193,7 @@
         <v>0</v>
       </c>
       <c r="N277" t="n">
-        <v>17.48</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="278">
@@ -13239,7 +13239,7 @@
         <v>0</v>
       </c>
       <c r="N278" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="279">
@@ -13285,7 +13285,7 @@
         <v>0</v>
       </c>
       <c r="N279" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="280">
@@ -13331,7 +13331,7 @@
         <v>0</v>
       </c>
       <c r="N280" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="281">
@@ -13377,7 +13377,7 @@
         <v>0</v>
       </c>
       <c r="N281" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="282">
@@ -13423,7 +13423,7 @@
         <v>0</v>
       </c>
       <c r="N282" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="283">
@@ -13469,7 +13469,7 @@
         <v>0</v>
       </c>
       <c r="N283" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="284">
@@ -13515,7 +13515,7 @@
         <v>0</v>
       </c>
       <c r="N284" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="285">
@@ -13561,7 +13561,7 @@
         <v>0</v>
       </c>
       <c r="N285" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="286">
@@ -13607,7 +13607,7 @@
         <v>0</v>
       </c>
       <c r="N286" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="287">
@@ -13653,7 +13653,7 @@
         <v>0</v>
       </c>
       <c r="N287" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="288">
@@ -13699,7 +13699,7 @@
         <v>0</v>
       </c>
       <c r="N288" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="289">
@@ -13745,7 +13745,7 @@
         <v>0</v>
       </c>
       <c r="N289" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="290">
@@ -13791,7 +13791,7 @@
         <v>0</v>
       </c>
       <c r="N290" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="291">
@@ -13837,7 +13837,7 @@
         <v>0</v>
       </c>
       <c r="N291" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="292">
@@ -13883,7 +13883,7 @@
         <v>0</v>
       </c>
       <c r="N292" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="293">
@@ -13929,7 +13929,7 @@
         <v>0</v>
       </c>
       <c r="N293" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="294">
@@ -13975,7 +13975,7 @@
         <v>0</v>
       </c>
       <c r="N294" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="295">
@@ -14021,7 +14021,7 @@
         <v>0</v>
       </c>
       <c r="N295" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="296">
@@ -14067,7 +14067,7 @@
         <v>0</v>
       </c>
       <c r="N296" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="297">
@@ -14113,7 +14113,7 @@
         <v>0</v>
       </c>
       <c r="N297" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="298">
@@ -14159,7 +14159,7 @@
         <v>0</v>
       </c>
       <c r="N298" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="299">
@@ -14205,7 +14205,7 @@
         <v>0</v>
       </c>
       <c r="N299" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="300">
@@ -14251,7 +14251,7 @@
         <v>0</v>
       </c>
       <c r="N300" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="301">
@@ -14297,7 +14297,7 @@
         <v>0</v>
       </c>
       <c r="N301" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="302">
@@ -14343,7 +14343,7 @@
         <v>0</v>
       </c>
       <c r="N302" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="303">
@@ -14389,7 +14389,7 @@
         <v>0</v>
       </c>
       <c r="N303" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="304">
@@ -14435,7 +14435,7 @@
         <v>0</v>
       </c>
       <c r="N304" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="305">
@@ -14481,7 +14481,7 @@
         <v>0</v>
       </c>
       <c r="N305" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="306">
@@ -14527,7 +14527,7 @@
         <v>0</v>
       </c>
       <c r="N306" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="307">
@@ -14573,7 +14573,7 @@
         <v>0</v>
       </c>
       <c r="N307" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="308">
@@ -14619,7 +14619,7 @@
         <v>0</v>
       </c>
       <c r="N308" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="309">
@@ -14665,7 +14665,7 @@
         <v>0</v>
       </c>
       <c r="N309" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="310">
@@ -14711,7 +14711,7 @@
         <v>0</v>
       </c>
       <c r="N310" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="311">
@@ -14757,7 +14757,7 @@
         <v>0</v>
       </c>
       <c r="N311" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="312">
@@ -14803,7 +14803,7 @@
         <v>0</v>
       </c>
       <c r="N312" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="313">
@@ -14849,7 +14849,7 @@
         <v>0</v>
       </c>
       <c r="N313" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="314">
@@ -14895,7 +14895,7 @@
         <v>0</v>
       </c>
       <c r="N314" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="315">
@@ -14941,7 +14941,7 @@
         <v>0</v>
       </c>
       <c r="N315" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="316">
@@ -14987,7 +14987,7 @@
         <v>0</v>
       </c>
       <c r="N316" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="317">
@@ -15033,7 +15033,7 @@
         <v>0</v>
       </c>
       <c r="N317" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="318">
@@ -15079,7 +15079,7 @@
         <v>0</v>
       </c>
       <c r="N318" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="319">
@@ -15125,7 +15125,7 @@
         <v>0</v>
       </c>
       <c r="N319" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="320">
@@ -15171,7 +15171,7 @@
         <v>0</v>
       </c>
       <c r="N320" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="321">
@@ -15217,7 +15217,7 @@
         <v>0</v>
       </c>
       <c r="N321" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="322">
@@ -15263,7 +15263,7 @@
         <v>0</v>
       </c>
       <c r="N322" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="323">
@@ -15309,7 +15309,7 @@
         <v>0</v>
       </c>
       <c r="N323" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="324">
@@ -15355,7 +15355,7 @@
         <v>0</v>
       </c>
       <c r="N324" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="325">
@@ -15401,7 +15401,7 @@
         <v>0</v>
       </c>
       <c r="N325" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="326">
@@ -15447,7 +15447,7 @@
         <v>0</v>
       </c>
       <c r="N326" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="327">
@@ -15493,7 +15493,7 @@
         <v>0</v>
       </c>
       <c r="N327" t="n">
-        <v>16.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="328">
@@ -15539,7 +15539,7 @@
         <v>0</v>
       </c>
       <c r="N328" t="n">
-        <v>13.57</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="329">
@@ -15585,7 +15585,7 @@
         <v>0</v>
       </c>
       <c r="N329" t="n">
-        <v>13.57</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="330">
@@ -15631,7 +15631,7 @@
         <v>0</v>
       </c>
       <c r="N330" t="n">
-        <v>13.57</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="331">
@@ -15677,7 +15677,7 @@
         <v>0</v>
       </c>
       <c r="N331" t="n">
-        <v>13.57</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="332">
@@ -15723,7 +15723,7 @@
         <v>0</v>
       </c>
       <c r="N332" t="n">
-        <v>13.57</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="333">
@@ -15769,7 +15769,7 @@
         <v>0</v>
       </c>
       <c r="N333" t="n">
-        <v>13.57</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="334">
@@ -15815,7 +15815,7 @@
         <v>0</v>
       </c>
       <c r="N334" t="n">
-        <v>13.57</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="335">
@@ -15861,7 +15861,7 @@
         <v>0</v>
       </c>
       <c r="N335" t="n">
-        <v>13.57</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="336">
@@ -15907,7 +15907,7 @@
         <v>0</v>
       </c>
       <c r="N336" t="n">
-        <v>13.57</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="337">
@@ -15953,7 +15953,7 @@
         <v>0</v>
       </c>
       <c r="N337" t="n">
-        <v>9.66</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="338">
@@ -15999,7 +15999,7 @@
         <v>0</v>
       </c>
       <c r="N338" t="n">
-        <v>9.66</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="339">
@@ -16045,7 +16045,7 @@
         <v>0</v>
       </c>
       <c r="N339" t="n">
-        <v>9.66</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="340">
@@ -16091,7 +16091,7 @@
         <v>0</v>
       </c>
       <c r="N340" t="n">
-        <v>9.66</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="341">
@@ -16137,7 +16137,7 @@
         <v>0</v>
       </c>
       <c r="N341" t="n">
-        <v>9.66</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="342">
@@ -16183,7 +16183,7 @@
         <v>0</v>
       </c>
       <c r="N342" t="n">
-        <v>9.66</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="343">
@@ -16229,7 +16229,7 @@
         <v>0</v>
       </c>
       <c r="N343" t="n">
-        <v>9.66</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="344">
@@ -16275,7 +16275,7 @@
         <v>0</v>
       </c>
       <c r="N344" t="n">
-        <v>9.66</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="345">
@@ -16321,7 +16321,7 @@
         <v>0</v>
       </c>
       <c r="N345" t="n">
-        <v>9.66</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="346">
@@ -16367,7 +16367,7 @@
         <v>0</v>
       </c>
       <c r="N346" t="n">
-        <v>9.66</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="347">
@@ -16413,7 +16413,7 @@
         <v>0</v>
       </c>
       <c r="N347" t="n">
-        <v>9.66</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="348">
@@ -16459,7 +16459,7 @@
         <v>0</v>
       </c>
       <c r="N348" t="n">
-        <v>9.66</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="349">
@@ -16505,7 +16505,7 @@
         <v>0</v>
       </c>
       <c r="N349" t="n">
-        <v>9.66</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="350">
@@ -16551,7 +16551,7 @@
         <v>0</v>
       </c>
       <c r="N350" t="n">
-        <v>9.66</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="351">
@@ -16597,7 +16597,7 @@
         <v>0</v>
       </c>
       <c r="N351" t="n">
-        <v>9.66</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="352">
@@ -16643,7 +16643,7 @@
         <v>0</v>
       </c>
       <c r="N352" t="n">
-        <v>9.66</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="353">
@@ -16689,7 +16689,7 @@
         <v>0</v>
       </c>
       <c r="N353" t="n">
-        <v>9.66</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="354">
@@ -16735,7 +16735,7 @@
         <v>0</v>
       </c>
       <c r="N354" t="n">
-        <v>9.66</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="355">
@@ -16781,7 +16781,7 @@
         <v>0</v>
       </c>
       <c r="N355" t="n">
-        <v>9.66</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="356">
@@ -16827,7 +16827,7 @@
         <v>0</v>
       </c>
       <c r="N356" t="n">
-        <v>9.66</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="357">
@@ -16873,7 +16873,7 @@
         <v>0</v>
       </c>
       <c r="N357" t="n">
-        <v>9.66</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="358">
@@ -16919,7 +16919,7 @@
         <v>0</v>
       </c>
       <c r="N358" t="n">
-        <v>9.66</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="359">
@@ -16965,7 +16965,7 @@
         <v>0</v>
       </c>
       <c r="N359" t="n">
-        <v>9.66</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="360">
@@ -17011,7 +17011,7 @@
         <v>0</v>
       </c>
       <c r="N360" t="n">
-        <v>9.66</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="361">
@@ -17057,7 +17057,7 @@
         <v>0</v>
       </c>
       <c r="N361" t="n">
-        <v>9.66</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="362">
@@ -17103,7 +17103,7 @@
         <v>0</v>
       </c>
       <c r="N362" t="n">
-        <v>9.66</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="363">
@@ -17149,7 +17149,7 @@
         <v>0</v>
       </c>
       <c r="N363" t="n">
-        <v>9.66</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="364">
@@ -17195,7 +17195,7 @@
         <v>0</v>
       </c>
       <c r="N364" t="n">
-        <v>9.66</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="365">
@@ -17241,7 +17241,7 @@
         <v>0</v>
       </c>
       <c r="N365" t="n">
-        <v>9.66</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="366">
@@ -17287,7 +17287,7 @@
         <v>0</v>
       </c>
       <c r="N366" t="n">
-        <v>9.66</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="367">
@@ -17333,7 +17333,7 @@
         <v>0</v>
       </c>
       <c r="N367" t="n">
-        <v>9.66</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="368">
@@ -17379,7 +17379,7 @@
         <v>0</v>
       </c>
       <c r="N368" t="n">
-        <v>9.66</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="369">
@@ -17425,7 +17425,7 @@
         <v>0</v>
       </c>
       <c r="N369" t="n">
-        <v>9.66</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="370">
@@ -17471,7 +17471,7 @@
         <v>0</v>
       </c>
       <c r="N370" t="n">
-        <v>9.66</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="371">
@@ -17517,7 +17517,7 @@
         <v>0</v>
       </c>
       <c r="N371" t="n">
-        <v>3.91</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="372">
@@ -17563,7 +17563,7 @@
         <v>0</v>
       </c>
       <c r="N372" t="n">
-        <v>3.91</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="373">
@@ -17609,7 +17609,7 @@
         <v>0</v>
       </c>
       <c r="N373" t="n">
-        <v>3.91</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="374">
@@ -17655,7 +17655,7 @@
         <v>0</v>
       </c>
       <c r="N374" t="n">
-        <v>3.91</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="375">
@@ -17701,7 +17701,7 @@
         <v>0</v>
       </c>
       <c r="N375" t="n">
-        <v>3.91</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="376">
@@ -17747,7 +17747,7 @@
         <v>0</v>
       </c>
       <c r="N376" t="n">
-        <v>3.91</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="377">
@@ -17793,7 +17793,7 @@
         <v>0</v>
       </c>
       <c r="N377" t="n">
-        <v>3.91</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="378">
@@ -17839,7 +17839,7 @@
         <v>0</v>
       </c>
       <c r="N378" t="n">
-        <v>3.91</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="379">
@@ -17885,7 +17885,7 @@
         <v>0</v>
       </c>
       <c r="N379" t="n">
-        <v>3.91</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="380">
@@ -17931,7 +17931,7 @@
         <v>0</v>
       </c>
       <c r="N380" t="n">
-        <v>3.91</v>
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
